--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinchen/Documents/GitRepo/websites/csc110/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hudson Lynam\Documents\websites\csc110-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8ADCDD-E57E-3347-9ACD-CBAEF299251B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28DC919-FEF8-468A-8129-E28B7183C0F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16500" yWindow="1440" windowWidth="30240" windowHeight="26620" xr2:uid="{8E2BECA6-270F-C740-9ED5-1344B6EDB180}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{8E2BECA6-270F-C740-9ED5-1344B6EDB180}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="78">
   <si>
     <t>week_start</t>
   </si>
@@ -270,9 +270,6 @@
   </si>
   <si>
     <t>Review, Final Exam</t>
-  </si>
-  <si>
-    <t>TBD</t>
   </si>
 </sst>
 </file>
@@ -662,11 +659,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFD2179-9860-BE4A-AB2A-CF760AB84B2E}">
   <dimension ref="A1:I98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="141" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="E98" sqref="E98"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="141" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
@@ -676,7 +673,7 @@
     <col min="8" max="8" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -705,7 +702,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -716,7 +713,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -727,7 +724,7 @@
         <v>44944</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -738,7 +735,7 @@
         <v>44951</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -749,7 +746,7 @@
         <v>44958</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -766,7 +763,7 @@
         <v>44972</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -777,7 +774,7 @@
         <v>44974</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -788,7 +785,7 @@
         <v>44981</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -799,7 +796,7 @@
         <v>44989</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -816,7 +813,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -827,7 +824,7 @@
         <v>45007</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -838,7 +835,7 @@
         <v>45014</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -855,7 +852,7 @@
         <v>45035</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -866,7 +863,7 @@
         <v>45028</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -877,7 +874,7 @@
         <v>45037</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -894,7 +891,7 @@
         <v>45057</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -908,7 +905,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -922,7 +919,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -942,7 +939,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -956,7 +953,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -976,7 +973,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -990,7 +987,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -1004,7 +1001,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -1018,7 +1015,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -1032,7 +1029,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -1052,7 +1049,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -1066,7 +1063,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -1086,7 +1083,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -1106,7 +1103,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -1126,7 +1123,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -1149,7 +1146,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1169,7 +1166,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1183,7 +1180,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -1198,7 +1195,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>31</v>
       </c>
@@ -1212,7 +1209,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>31</v>
       </c>
@@ -1226,7 +1223,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>31</v>
       </c>
@@ -1246,7 +1243,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>31</v>
       </c>
@@ -1260,7 +1257,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>31</v>
       </c>
@@ -1274,7 +1271,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -1294,7 +1291,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>31</v>
       </c>
@@ -1309,7 +1306,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>31</v>
       </c>
@@ -1323,7 +1320,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>31</v>
       </c>
@@ -1343,7 +1340,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>31</v>
       </c>
@@ -1358,7 +1355,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>31</v>
       </c>
@@ -1372,7 +1369,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>31</v>
       </c>
@@ -1387,7 +1384,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>31</v>
       </c>
@@ -1407,7 +1404,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>31</v>
       </c>
@@ -1421,7 +1418,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>31</v>
       </c>
@@ -1444,7 +1441,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>43</v>
       </c>
@@ -1461,7 +1458,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>43</v>
       </c>
@@ -1484,7 +1481,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>43</v>
       </c>
@@ -1501,7 +1498,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>43</v>
       </c>
@@ -1518,7 +1515,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>43</v>
       </c>
@@ -1536,7 +1533,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>43</v>
       </c>
@@ -1560,7 +1557,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>43</v>
       </c>
@@ -1577,7 +1574,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>43</v>
       </c>
@@ -1594,7 +1591,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>43</v>
       </c>
@@ -1617,7 +1614,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>43</v>
       </c>
@@ -1635,7 +1632,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>43</v>
       </c>
@@ -1652,7 +1649,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>43</v>
       </c>
@@ -1675,7 +1672,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>43</v>
       </c>
@@ -1698,7 +1695,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>43</v>
       </c>
@@ -1721,7 +1718,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>43</v>
       </c>
@@ -1747,7 +1744,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>61</v>
       </c>
@@ -1764,7 +1761,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>61</v>
       </c>
@@ -1787,7 +1784,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>61</v>
       </c>
@@ -1804,7 +1801,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>61</v>
       </c>
@@ -1821,7 +1818,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>61</v>
       </c>
@@ -1838,7 +1835,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>61</v>
       </c>
@@ -1861,7 +1858,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>61</v>
       </c>
@@ -1878,7 +1875,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>61</v>
       </c>
@@ -1895,7 +1892,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>61</v>
       </c>
@@ -1918,7 +1915,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>61</v>
       </c>
@@ -1935,7 +1932,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>61</v>
       </c>
@@ -1958,7 +1955,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>61</v>
       </c>
@@ -1975,7 +1972,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>61</v>
       </c>
@@ -1992,7 +1989,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>61</v>
       </c>
@@ -2009,7 +2006,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>61</v>
       </c>
@@ -2032,7 +2029,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>61</v>
       </c>
@@ -2049,7 +2046,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>61</v>
       </c>
@@ -2075,7 +2072,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>61</v>
       </c>
@@ -2098,7 +2095,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>73</v>
       </c>
@@ -2115,7 +2112,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>73</v>
       </c>
@@ -2139,7 +2136,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>73</v>
       </c>
@@ -2156,7 +2153,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>73</v>
       </c>
@@ -2173,7 +2170,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>73</v>
       </c>
@@ -2190,7 +2187,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>73</v>
       </c>
@@ -2207,7 +2204,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>73</v>
       </c>
@@ -2221,7 +2218,7 @@
         <v>2</v>
       </c>
       <c r="E89" s="1">
-        <v>45937</v>
+        <v>45938</v>
       </c>
       <c r="H89" t="s">
         <v>51</v>
@@ -2230,7 +2227,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>73</v>
       </c>
@@ -2247,7 +2244,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>73</v>
       </c>
@@ -2264,7 +2261,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>73</v>
       </c>
@@ -2281,7 +2278,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>73</v>
       </c>
@@ -2295,7 +2292,7 @@
         <v>4</v>
       </c>
       <c r="E93" s="1">
-        <v>45965</v>
+        <v>45966</v>
       </c>
       <c r="H93" t="s">
         <v>55</v>
@@ -2304,7 +2301,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>73</v>
       </c>
@@ -2327,7 +2324,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>73</v>
       </c>
@@ -2344,7 +2341,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>73</v>
       </c>
@@ -2367,7 +2364,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>73</v>
       </c>
@@ -2384,7 +2381,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>74</v>
       </c>
@@ -2398,10 +2395,10 @@
         <v>6</v>
       </c>
       <c r="E98" s="1">
-        <v>46001</v>
+        <v>46003</v>
       </c>
       <c r="F98" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="H98" t="s">
         <v>65</v>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hudson Lynam\Documents\websites\csc110-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28DC919-FEF8-468A-8129-E28B7183C0F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3637E92D-9F1B-4D83-B085-521E0FFEE725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{8E2BECA6-270F-C740-9ED5-1344B6EDB180}"/>
+    <workbookView xWindow="1820" yWindow="1820" windowWidth="19200" windowHeight="11170" xr2:uid="{8E2BECA6-270F-C740-9ED5-1344B6EDB180}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="77">
   <si>
     <t>week_start</t>
   </si>
@@ -258,9 +258,6 @@
   </si>
   <si>
     <t>fall 2025</t>
-  </si>
-  <si>
-    <t>fall 2026</t>
   </si>
   <si>
     <t>Operators and Expressions, functions</t>
@@ -659,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFD2179-9860-BE4A-AB2A-CF760AB84B2E}">
   <dimension ref="A1:I98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="141" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="G83" sqref="G83"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="141" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2133,7 +2130,7 @@
         <v>46</v>
       </c>
       <c r="I84" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
@@ -2150,7 +2147,7 @@
         <v>47</v>
       </c>
       <c r="I85" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
@@ -2383,7 +2380,7 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B98">
         <v>16</v>
@@ -2404,7 +2401,7 @@
         <v>65</v>
       </c>
       <c r="I98" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hudson Lynam\Documents\websites\csc110-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3637E92D-9F1B-4D83-B085-521E0FFEE725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8993D5E6-6BAC-40CC-BDF5-8886EBD2D30F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="1820" windowWidth="19200" windowHeight="11170" xr2:uid="{8E2BECA6-270F-C740-9ED5-1344B6EDB180}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{8E2BECA6-270F-C740-9ED5-1344B6EDB180}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="79">
   <si>
     <t>week_start</t>
   </si>
@@ -267,6 +267,12 @@
   </si>
   <si>
     <t>Review, Final Exam</t>
+  </si>
+  <si>
+    <t>spring 2026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March 9-16, 2026 </t>
   </si>
 </sst>
 </file>
@@ -654,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFD2179-9860-BE4A-AB2A-CF760AB84B2E}">
-  <dimension ref="A1:I98"/>
+  <dimension ref="A1:I116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="141" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="141" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="G109" sqref="G109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2404,6 +2410,334 @@
         <v>76</v>
       </c>
     </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>77</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99" s="1">
+        <v>46036</v>
+      </c>
+      <c r="H99" t="s">
+        <v>45</v>
+      </c>
+      <c r="I99" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>77</v>
+      </c>
+      <c r="B100">
+        <v>2</v>
+      </c>
+      <c r="C100" s="1">
+        <v>46041</v>
+      </c>
+      <c r="E100" s="1">
+        <v>46051</v>
+      </c>
+      <c r="G100" t="s">
+        <v>32</v>
+      </c>
+      <c r="H100" t="s">
+        <v>46</v>
+      </c>
+      <c r="I100" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>77</v>
+      </c>
+      <c r="B101">
+        <v>3</v>
+      </c>
+      <c r="C101" s="1">
+        <v>46048</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>77</v>
+      </c>
+      <c r="B102">
+        <v>4</v>
+      </c>
+      <c r="C102" s="1">
+        <v>46055</v>
+      </c>
+      <c r="H102" t="s">
+        <v>48</v>
+      </c>
+      <c r="I102" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>77</v>
+      </c>
+      <c r="B103">
+        <v>5</v>
+      </c>
+      <c r="C103" s="1">
+        <v>46062</v>
+      </c>
+      <c r="H103" t="s">
+        <v>49</v>
+      </c>
+      <c r="I103" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>77</v>
+      </c>
+      <c r="B104">
+        <v>6</v>
+      </c>
+      <c r="C104" s="1">
+        <v>46069</v>
+      </c>
+      <c r="D104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E104" s="3">
+        <v>46078</v>
+      </c>
+      <c r="H104" t="s">
+        <v>50</v>
+      </c>
+      <c r="I104" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>77</v>
+      </c>
+      <c r="B105">
+        <v>7</v>
+      </c>
+      <c r="C105" s="1">
+        <v>46076</v>
+      </c>
+      <c r="H105" t="s">
+        <v>51</v>
+      </c>
+      <c r="I105" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>77</v>
+      </c>
+      <c r="B106">
+        <v>8</v>
+      </c>
+      <c r="C106" s="1">
+        <v>46083</v>
+      </c>
+      <c r="H106" t="s">
+        <v>52</v>
+      </c>
+      <c r="I106" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>77</v>
+      </c>
+      <c r="B107" t="s">
+        <v>33</v>
+      </c>
+      <c r="C107" s="1">
+        <v>46090</v>
+      </c>
+      <c r="E107" s="3">
+        <v>46090</v>
+      </c>
+      <c r="G107" t="s">
+        <v>78</v>
+      </c>
+      <c r="H107" t="s">
+        <v>69</v>
+      </c>
+      <c r="I107" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>77</v>
+      </c>
+      <c r="B108">
+        <v>9</v>
+      </c>
+      <c r="C108" s="1">
+        <v>46097</v>
+      </c>
+      <c r="H108" t="s">
+        <v>53</v>
+      </c>
+      <c r="I108" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>77</v>
+      </c>
+      <c r="B109">
+        <v>10</v>
+      </c>
+      <c r="C109" s="1">
+        <v>46104</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E109" s="3">
+        <v>46113</v>
+      </c>
+      <c r="H109" t="s">
+        <v>54</v>
+      </c>
+      <c r="I109" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>77</v>
+      </c>
+      <c r="B110">
+        <v>11</v>
+      </c>
+      <c r="C110" s="1">
+        <v>46111</v>
+      </c>
+      <c r="H110" t="s">
+        <v>55</v>
+      </c>
+      <c r="I110" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>77</v>
+      </c>
+      <c r="B111">
+        <v>12</v>
+      </c>
+      <c r="C111" s="1">
+        <v>46118</v>
+      </c>
+      <c r="H111" t="s">
+        <v>56</v>
+      </c>
+      <c r="I111" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>77</v>
+      </c>
+      <c r="B112">
+        <v>13</v>
+      </c>
+      <c r="C112" s="1">
+        <v>46125</v>
+      </c>
+      <c r="H112" t="s">
+        <v>57</v>
+      </c>
+      <c r="I112" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>77</v>
+      </c>
+      <c r="B113">
+        <v>14</v>
+      </c>
+      <c r="C113" s="1">
+        <v>46132</v>
+      </c>
+      <c r="D113" s="4"/>
+      <c r="E113" s="5"/>
+      <c r="H113" t="s">
+        <v>58</v>
+      </c>
+      <c r="I113" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>77</v>
+      </c>
+      <c r="B114">
+        <v>15</v>
+      </c>
+      <c r="C114" s="1">
+        <v>46139</v>
+      </c>
+      <c r="H114" t="s">
+        <v>59</v>
+      </c>
+      <c r="I114" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>77</v>
+      </c>
+      <c r="B115">
+        <v>16</v>
+      </c>
+      <c r="C115" s="1">
+        <v>46146</v>
+      </c>
+      <c r="D115" t="s">
+        <v>6</v>
+      </c>
+      <c r="E115" s="5">
+        <v>46150</v>
+      </c>
+      <c r="F115" t="s">
+        <v>11</v>
+      </c>
+      <c r="H115" t="s">
+        <v>65</v>
+      </c>
+      <c r="I115" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C116" s="1"/>
+      <c r="E116" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
